--- a/gama-project/includes/012tri.xlsx
+++ b/gama-project/includes/012tri.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="225">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -892,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11286,8 +11286,8 @@
       <c r="B73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="5" t="n">
-        <v>1.5</v>
+      <c r="C73" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>174</v>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="AV73" s="2" t="str">
         <f aca="false">A73&amp;","&amp;B73&amp;","&amp;C73&amp;","&amp;D73&amp;","&amp;E73&amp;","&amp;F73&amp;","&amp;G73&amp;","&amp;H73&amp;","&amp;I73&amp;","&amp;J73&amp;","&amp;K73&amp;","&amp;L73&amp;","&amp;M73&amp;","&amp;N73&amp;","&amp;O73&amp;","&amp;P73&amp;","&amp;Q73&amp;","&amp;R73&amp;","&amp;S73&amp;","&amp;T73&amp;","&amp;U73&amp;","&amp;V73&amp;","&amp;W73&amp;","&amp;X73&amp;","&amp;Y73&amp;","&amp;Z73&amp;","&amp;AA73&amp;","&amp;AB73&amp;","&amp;AC73&amp;","&amp;AD73&amp;","&amp;AE73&amp;","&amp;AF73&amp;","&amp;AG73&amp;","&amp;AH73&amp;","&amp;AI73&amp;","&amp;AJ73&amp;","&amp;AK73&amp;","&amp;AL73&amp;","&amp;AM73&amp;","&amp;AN73&amp;","&amp;AO73&amp;","&amp;AP73&amp;","&amp;AQ73&amp;","&amp;AR73&amp;","&amp;AS73&amp;","&amp;AT73</f>
-        <v>163,oui,1,5,39.00Z,N,PME,50.60539,2.956179,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,0,0,0,0,0,0,0,0</v>
+        <v>163,oui,1.5,39.00Z,N,PME,50.60539,2.956179,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
